--- a/Acuracia Resultados.xlsx
+++ b/Acuracia Resultados.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_AD4D361C20488D9ACD6DCC36ED5C7C945BDEDDA0" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{442A2A90-3D98-4FED-A8DB-710D718798E6}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{62C97B16-3AEE-4523-923E-64D87A9BE98D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Imagens Coloridas - Rede 1" sheetId="1" r:id="rId1"/>
     <sheet name="Imagens Binarias 1 - Rede 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Imagens Binarias 2 - Rede 1" sheetId="3" r:id="rId3"/>
+    <sheet name="Todos" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Tentativa</t>
   </si>
@@ -64,6 +64,78 @@
   </si>
   <si>
     <t>R12</t>
+  </si>
+  <si>
+    <t>R1 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R2 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R3 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R4 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R5 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R6 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R7 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R8 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R9 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R10 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R11 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R12 - Img Coloridas - Rede 1</t>
+  </si>
+  <si>
+    <t>R1 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R2 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R3 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R4 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R5 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R6 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R7 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R8 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R9 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R11 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R12 - Img Binarias 1 - Rede 1</t>
+  </si>
+  <si>
+    <t>R10 - Img Binarias 1 - Rede 1</t>
   </si>
 </sst>
 </file>
@@ -129,6 +201,997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$A$2:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>R1 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>R1 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R2 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R2 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R3 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>R3 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>R4 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R4 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>R5 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>R5 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>R6 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>R6 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>R7 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>R7 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>R8 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>R8 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>R9 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>R9 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>R10 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>R10 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>R11 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>R11 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>R12 - Img Coloridas - Rede 1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>R12 - Img Binarias 1 - Rede 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$2:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.90620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94530000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88180000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.88429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90969999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88670000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.90620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.92679999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.90429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.90039999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3F3-4210-A086-51AC97458AE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="538911048"/>
+        <c:axId val="538912032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="538911048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538912032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538912032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538911048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048CDEBF-569B-4C7C-B38E-C4D6AB739B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,7 +1460,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +1582,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>0.78520000000000001</v>
+        <v>0.50880000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -548,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>0.78910000000000002</v>
+        <v>0.51559999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>0.87649999999999995</v>
+        <v>0.90620000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -564,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.90720000000000001</v>
+        <v>0.88180000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -572,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>0.90090000000000003</v>
+        <v>0.89600000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -580,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>0.92090000000000005</v>
+        <v>0.91849999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,7 +1651,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>0.89990000000000003</v>
+        <v>0.88429999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,7 +1659,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>0.91159999999999997</v>
+        <v>0.90969999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +1667,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>0.70020000000000004</v>
+        <v>0.90620000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -612,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>0.91700000000000004</v>
+        <v>0.92679999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -620,7 +1683,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0.82030000000000003</v>
+        <v>0.90429999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>0.88229999999999997</v>
+        <v>0.90039999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -637,19 +1700,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D37AF35-4DBC-43FB-836D-0EC90562647D}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0E6F-1056-46B3-8A45-AC10040EAAE9}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,103 +1721,270 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>0.502</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>0.48830000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.82430000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.91500000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.50880000000000003</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>0.90229999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2">
-        <v>0.89259999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
+        <v>0.51559999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.92869999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.90620000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.94530000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.88180000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.89939999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.93159999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.91849999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.92720000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.88429999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.87790000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.90969999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.88670000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.90620000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.94040000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.92679999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.90920000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.90429999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.92430000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2">
         <v>0.90039999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.90190000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.86329999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.89890000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.88959999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.87739999999999996</v>
-      </c>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Acuracia Resultados.xlsx
+++ b/Acuracia Resultados.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{62C97B16-3AEE-4523-923E-64D87A9BE98D}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6A202F98-EDD1-4CF7-85C7-6FD23C6401D3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Imagens Coloridas - Rede 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Imagens Binarias 1 - Rede 1" sheetId="2" r:id="rId2"/>
-    <sheet name="Todos" sheetId="4" r:id="rId3"/>
+    <sheet name="TesteRede2_Binaria_Base2" sheetId="5" r:id="rId1"/>
+    <sheet name="TesteRede2_Binaria_Base3" sheetId="6" r:id="rId2"/>
+    <sheet name="TesteRede2_Colorida_Base2" sheetId="7" r:id="rId3"/>
+    <sheet name="Todos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,48 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Tentativa</t>
   </si>
   <si>
     <t>Accuracy</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
   </si>
   <si>
     <t>R1 - Img Coloridas - Rede 1</t>
@@ -137,6 +102,60 @@
   <si>
     <t>R10 - Img Binarias 1 - Rede 1</t>
   </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Precisão</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>Acuracia</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>M7</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M9</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>19.64%</t>
+  </si>
 </sst>
 </file>
 
@@ -204,6 +223,3464 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.53159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C046-4D1C-A0DA-FD22F4F500CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.56659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.6542</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87609999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C046-4D1C-A0DA-FD22F4F500CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80510000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C046-4D1C-A0DA-FD22F4F500CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="744551720"/>
+        <c:axId val="744556312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744551720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744556312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744556312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744551720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65610000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53159999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80510000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80120000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80569999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base2!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-8459-420E-A307-FFAA4859747E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="744547784"/>
+        <c:axId val="744549096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744547784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744549096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744549096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744547784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1588</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4491-40AB-B628-688DBCF79A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.40350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76439999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.3805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29239999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4491-40AB-B628-688DBCF79A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>M2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>M3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>M5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>M10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4491-40AB-B628-688DBCF79A3E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="507072144"/>
+        <c:axId val="507074440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="507072144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507074440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507074440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507072144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40350000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21859999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.76019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94120000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88519999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2707</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50939999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1588</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76439999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5100000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25209999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3805</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AUC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TesteRede2_Binaria_Base3!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-3833-456D-AE24-2AC360C4477F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="744531384"/>
+        <c:axId val="744526792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="744531384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744526792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="744526792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="744531384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -650,6 +4127,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1153,7 +4790,2173 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A179C3B4-3F3B-4243-9D7C-3F680A1B446B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1418C93A-41A6-45A2-8CFF-18E5BEBC6A01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445DBD5F-FF11-480F-AC86-9C318AA2979B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F01E3DC-AB9C-41F9-A6B9-D60D971EE48B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1456,242 +7259,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BCBB32-DB92-4EE9-8C67-20ED7815EF4E}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>0.56659999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.65610000000000002</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
-        <v>0.92869999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.80330000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
-        <v>0.94530000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
-        <v>0.89939999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.71609999999999996</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>0.93159999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
-        <v>0.92720000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.80510000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
-        <v>0.87790000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.65659999999999996</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.80120000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
-        <v>0.88670000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.80569999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
-        <v>0.94040000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.1023</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
-        <v>0.90920000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
-        <v>0.92430000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.6542</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.80210000000000004</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF91CE5-A7BD-4CE8-BE57-6326DABC2220}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7FCC032-140A-43DB-AA1C-BE4C1DB4DE25}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="2">
+        <v>0.40350000000000003</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1883</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.21859999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.71950000000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.76019999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.2707</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.41660000000000003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.50939999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1588</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.51290000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.3221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.76439999999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.25209999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.3805</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.29239999999999999</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA174E-1D73-43E4-BF72-24FDBDF63650}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2">
-        <v>0.50880000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2">
-        <v>0.51559999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.84740000000000004</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.73280000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2">
-        <v>0.90620000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.44269999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.9022</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.75800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2">
-        <v>0.88180000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.73350000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2">
-        <v>0.89600000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3075</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.59379999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>0.91849999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.76019999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
-        <v>0.88429999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.86170000000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.75170000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
-        <v>0.90969999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.46310000000000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.82689999999999997</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.78110000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
-        <v>0.90620000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91449999999999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.85089999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
-        <v>0.92679999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.86380000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.72070000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
-        <v>0.90429999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.60319999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
-        <v>0.90039999999999998</v>
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.81120000000000003</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.66239999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.3448</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.70989999999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.64270000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1699,11 +7893,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0E6F-1056-46B3-8A45-AC10040EAAE9}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1723,7 +7917,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>0.502</v>
@@ -1732,7 +7926,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
         <v>0.50880000000000003</v>
@@ -1749,7 +7943,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>0.875</v>
@@ -1757,7 +7951,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>0.51559999999999995</v>
@@ -1771,7 +7965,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2">
         <v>0.92869999999999997</v>
@@ -1779,7 +7973,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
         <v>0.90620000000000001</v>
@@ -1793,7 +7987,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B14" s="2">
         <v>0.94530000000000003</v>
@@ -1801,7 +7995,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
         <v>0.88180000000000003</v>
@@ -1815,7 +8009,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2">
         <v>0.89939999999999998</v>
@@ -1823,7 +8017,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>0.89600000000000002</v>
@@ -1837,7 +8031,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>0.93159999999999998</v>
@@ -1845,7 +8039,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2">
         <v>0.91849999999999998</v>
@@ -1859,7 +8053,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2">
         <v>0.92720000000000002</v>
@@ -1867,7 +8061,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2">
         <v>0.88429999999999997</v>
@@ -1881,7 +8075,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B30" s="2">
         <v>0.87790000000000001</v>
@@ -1889,7 +8083,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B31" s="2">
         <v>0.90969999999999995</v>
@@ -1903,7 +8097,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B34" s="2">
         <v>0.88670000000000004</v>
@@ -1911,7 +8105,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2">
         <v>0.90620000000000001</v>
@@ -1922,7 +8116,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>0.94040000000000001</v>
@@ -1930,7 +8124,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2">
         <v>0.92679999999999996</v>
@@ -1944,7 +8138,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B42" s="2">
         <v>0.90920000000000001</v>
@@ -1952,7 +8146,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
         <v>0.90429999999999999</v>
@@ -1966,7 +8160,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2">
         <v>0.92430000000000001</v>
@@ -1974,7 +8168,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2">
         <v>0.90039999999999998</v>

--- a/Acuracia Resultados.xlsx
+++ b/Acuracia Resultados.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6A202F98-EDD1-4CF7-85C7-6FD23C6401D3}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AEC28EEC-1A7D-482F-A3AD-217DD44D63B2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TesteRede2_Binaria_Base2" sheetId="5" r:id="rId1"/>
@@ -23,85 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
-  <si>
-    <t>Tentativa</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
-    <t>R1 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R2 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R3 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R4 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R5 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R6 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R7 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R8 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R9 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R10 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R11 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R12 - Img Coloridas - Rede 1</t>
-  </si>
-  <si>
-    <t>R1 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R2 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R3 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R4 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R5 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R6 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R7 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R8 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R9 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R11 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R12 - Img Binarias 1 - Rede 1</t>
-  </si>
-  <si>
-    <t>R10 - Img Binarias 1 - Rede 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Modelo</t>
   </si>
@@ -156,6 +78,123 @@
   <si>
     <t>19.64%</t>
   </si>
+  <si>
+    <t>M1 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M2 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M3 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M4 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M5 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M6 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M7 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M8 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M9 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M10 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M11 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M12 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M13 - TesteRede2_Binaria_Base2</t>
+  </si>
+  <si>
+    <t>M1 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M2 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M3 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M4 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M5 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M6 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M7 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M8 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M9 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M10 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M11 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M12 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t>M13 - TesteRede2_Binaria_Base3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1 - TesteRede2_Colorida_Base2 </t>
+  </si>
+  <si>
+    <t>M2 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M3 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M4 -  TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M5 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M6 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M7 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M8 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M9 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M10 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M11 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M12 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M13 - TesteRede2_Colorida_Base2</t>
+  </si>
 </sst>
 </file>
 
@@ -200,10 +239,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,31 +394,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33329999999999999</c:v>
+                  <c:v>0.1429</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.1613</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53159999999999996</c:v>
+                  <c:v>3.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1</c:v>
+                  <c:v>0.33329999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53469999999999995</c:v>
+                  <c:v>0.32140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>6.4000000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -473,46 +510,46 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.56659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65610000000000002</c:v>
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58489999999999998</c:v>
+                  <c:v>0.85899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94499999999999995</c:v>
+                  <c:v>0.312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71609999999999996</c:v>
+                  <c:v>0.44900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17960000000000001</c:v>
+                  <c:v>0.93600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86780000000000002</c:v>
+                  <c:v>0.29199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65659999999999996</c:v>
+                  <c:v>0.76800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.91249999999999998</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1023</c:v>
+                  <c:v>0.66200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58450000000000002</c:v>
+                  <c:v>0.35899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.6542</c:v>
+                  <c:v>0.79900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87609999999999999</c:v>
+                  <c:v>0.752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,37 +644,37 @@
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80330000000000001</c:v>
+                  <c:v>0.80210000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80300000000000005</c:v>
+                  <c:v>0.79720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80510000000000004</c:v>
+                  <c:v>0.44109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80120000000000002</c:v>
+                  <c:v>0.79810000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80569999999999997</c:v>
+                  <c:v>0.79749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80359999999999998</c:v>
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.80300000000000005</c:v>
+                  <c:v>0.80330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80210000000000004</c:v>
+                  <c:v>0.80330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -940,15 +977,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.40100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1005,15 +1042,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65610000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1070,16 +1107,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.33329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58489999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80330000000000001</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.80210000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,15 +1172,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94499999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1200,16 +1237,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.71609999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80300000000000005</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.1613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.79720000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,15 +1302,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1332,16 +1369,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.53159999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86780000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80510000000000004</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.44109999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,16 +1436,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$9:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65659999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80120000000000002</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.79810000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,16 +1503,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$10:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.53469999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80569999999999997</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.32140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.79749999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1533,15 +1570,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$11:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1023</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -1600,16 +1637,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$12:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58450000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80359999999999998</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.61599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,16 +1704,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$13:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6542</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80300000000000005</c:v>
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.80330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,16 +1772,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base2!$B$14:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80210000000000004</c:v>
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.80330000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,25 +2117,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1883</c:v>
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76019999999999999</c:v>
+                  <c:v>0.2475</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2707</c:v>
+                  <c:v>0.53059999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1588</c:v>
+                  <c:v>0.74339999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.19639999999999999</c:v>
@@ -2202,46 +2239,46 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.40350000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.49199999999999999</c:v>
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71950000000000003</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94120000000000004</c:v>
+                  <c:v>0.94499999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14169999999999999</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41660000000000003</c:v>
+                  <c:v>0.57299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51290000000000002</c:v>
+                  <c:v>0.93400000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76439999999999997</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5100000000000005E-2</c:v>
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.25209999999999999</c:v>
+                  <c:v>0.247</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.3805</c:v>
+                  <c:v>0.28299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86099999999999999</c:v>
+                  <c:v>0.53700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29239999999999999</c:v>
+                  <c:v>0.379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,22 +2370,22 @@
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21859999999999999</c:v>
+                  <c:v>0.20069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88519999999999999</c:v>
+                  <c:v>0.40529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50939999999999996</c:v>
+                  <c:v>0.8054</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.3221</c:v>
+                  <c:v>0.90439999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.19639999999999999</c:v>
@@ -2669,15 +2706,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$2:$D$2</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.40350000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -2734,16 +2771,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1883</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.49199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.21859999999999999</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.20069999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,15 +2836,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2864,16 +2901,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.76019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94120000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.88519999999999999</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.2475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.40529999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,15 +2966,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14169999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2994,16 +3031,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.2707</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41660000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50939999999999996</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.53059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.8054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3061,16 +3098,16 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1588</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51290000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3221</c:v>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.74339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.90439999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3128,15 +3165,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$9:$D$9</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76439999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3195,15 +3232,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$10:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5100000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3262,15 +3299,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$11:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3329,15 +3366,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$12:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3805</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3396,15 +3433,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$13:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3464,15 +3501,15 @@
             <c:numRef>
               <c:f>TesteRede2_Binaria_Base3!$B$14:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.29239999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.19639999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -3736,11 +3773,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Todos!$B$1</c:f>
+              <c:f>Todos!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Accuracy</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3757,168 +3794,2766 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Todos!$A$2:$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="46"/>
-                <c:pt idx="0">
-                  <c:v>R1 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>R1 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>R2 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>R2 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>R3 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>R3 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>R4 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>R4 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>R5 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>R5 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>R6 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>R6 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>R7 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>R7 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>R8 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>R8 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>R9 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>R9 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>R10 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>R10 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>R11 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>R11 - Img Binarias 1 - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>R12 - Img Coloridas - Rede 1</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>R12 - Img Binarias 1 - Rede 1</c:v>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Todos!$B$2:$B$50</c:f>
+              <c:f>Todos!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>0.502</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51559999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.90620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.94530000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88180000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.89939999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.89600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.93159999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.91849999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.92720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.88429999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.87790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.90969999999999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.88670000000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.90620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.94040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.92679999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.90920000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.90429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.92430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.90039999999999998</c:v>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3F3-4210-A086-51AC97458AE1}"/>
+              <c16:uniqueId val="{00000000-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.46500000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M1 - TesteRede2_Colorida_Base2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M2 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.64019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.87429999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$10:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M3 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.67659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.83940000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.2475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M4 -  TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.40620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.72860000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M5 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M5 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M5 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.42109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.75319999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M6 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$22:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M6 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.53059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8054</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M6 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$24:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M7 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M7 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$27:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.74339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M7 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$28:$D$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.41360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.72740000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M8 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$30:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M8 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$31:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001D-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="30"/>
+          <c:order val="30"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M8 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$32:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.43409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.77139999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001E-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M9 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$34:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.32140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M9 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$35:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000021-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="34"/>
+          <c:order val="34"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M9 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$36:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.43490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.75229999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000022-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="36"/>
+          <c:order val="36"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M10 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$38:$D$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000024-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M10 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$39:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="38"/>
+          <c:order val="38"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M10 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$40:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.27889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="40"/>
+          <c:order val="40"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M11 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$42:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000028-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="41"/>
+          <c:order val="41"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M11 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="70000"/>
+                <a:lumOff val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$43:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000029-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="42"/>
+          <c:order val="42"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M11 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$44:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.84730000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002A-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="44"/>
+          <c:order val="44"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M12 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$46:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002C-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="45"/>
+          <c:order val="45"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M12 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$47:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002D-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="46"/>
+          <c:order val="46"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M12 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="70000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$48:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.28160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000002E-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="48"/>
+          <c:order val="48"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M13 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$50:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000030-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="49"/>
+          <c:order val="49"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M13 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$51:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000031-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="50"/>
+          <c:order val="50"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>M13 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$52:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.4284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00%">
+                  <c:v>0.75380000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000032-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="51"/>
+          <c:order val="51"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$53:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000033-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="52"/>
+          <c:order val="52"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$54:$D$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000034-34B0-4AD8-BDEA-40D076F1D215}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="53"/>
+          <c:order val="53"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Todos!$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precisão</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Acuracia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AUC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Todos!$B$55:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000035-34B0-4AD8-BDEA-40D076F1D215}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3932,11 +6567,916 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="538911048"/>
-        <c:axId val="538912032"/>
+        <c:axId val="501123760"/>
+        <c:axId val="501125400"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$5:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$9:$D$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$13:$D$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="15"/>
+                <c:order val="15"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$17:$D$17</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$21:$D$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000013-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="23"/>
+                <c:order val="23"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$25:$D$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000017-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="27"/>
+                <c:order val="27"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$29:$D$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001B-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="31"/>
+                <c:order val="31"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$33:$D$33</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000001F-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="35"/>
+                <c:order val="35"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$37:$D$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000023-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="39"/>
+                <c:order val="39"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="70000"/>
+                      <a:lumOff val="30000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$41:$D$41</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000027-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="43"/>
+                <c:order val="43"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$45:$D$45</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002B-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="47"/>
+                <c:order val="47"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$A$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="70000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Precisão</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Acuracia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>AUC</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Todos!$B$49:$D$49</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="3"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000002F-34B0-4AD8-BDEA-40D076F1D215}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="538911048"/>
+        <c:axId val="501123760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +7519,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538912032"/>
+        <c:crossAx val="501125400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3987,7 +7527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538912032"/>
+        <c:axId val="501125400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +7578,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538911048"/>
+        <c:crossAx val="501123760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4050,6 +7590,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6960,23 +10531,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048CDEBF-569B-4C7C-B38E-C4D6AB739B7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0809DA-2AAE-4C33-82C6-90B7EDE2E816}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7262,206 +10833,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BCBB32-DB92-4EE9-8C67-20ED7815EF4E}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.56659999999999999</v>
-      </c>
-      <c r="D2" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0.65610000000000002</v>
-      </c>
-      <c r="D3" s="2">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.33329999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1429</v>
       </c>
       <c r="C4" s="2">
-        <v>0.58489999999999998</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.80330000000000001</v>
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.80210000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="D5" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.25</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1613</v>
       </c>
       <c r="C6" s="2">
-        <v>0.71609999999999996</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.79720000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0.17960000000000001</v>
-      </c>
-      <c r="D7" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="D7" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.53159999999999996</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.3E-3</v>
       </c>
       <c r="C8" s="2">
-        <v>0.86780000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.80510000000000004</v>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.44109999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.1</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.33329999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.65659999999999996</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.80120000000000002</v>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.79810000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.53469999999999995</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.32140000000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.80569999999999997</v>
+        <v>0.748</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.79749999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
         <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0.1023</v>
-      </c>
-      <c r="D11" s="2">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.80359999999999998</v>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>0.6542</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.80300000000000005</v>
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.80330000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
         <v>0</v>
       </c>
       <c r="C14" s="2">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.80210000000000004</v>
+        <v>0.752</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.80330000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7475,204 +11046,204 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="A2" sqref="A2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.19639999999999999</v>
       </c>
       <c r="C2" s="2">
-        <v>0.40350000000000003</v>
-      </c>
-      <c r="D2" s="2">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D2" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.1883</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.19600000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.21859999999999999</v>
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.20069999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>0.71950000000000003</v>
-      </c>
-      <c r="D4" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.76019999999999999</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2475</v>
       </c>
       <c r="C5" s="2">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.88519999999999999</v>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.40529999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="D6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.2707</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.53059999999999996</v>
       </c>
       <c r="C7" s="2">
-        <v>0.41660000000000003</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.50939999999999996</v>
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.8054</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.1588</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.74339999999999995</v>
       </c>
       <c r="C8" s="2">
-        <v>0.51290000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.3221</v>
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.90439999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.76439999999999997</v>
-      </c>
-      <c r="D9" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>6.5100000000000005E-2</v>
-      </c>
-      <c r="D10" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D10" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>0.25209999999999999</v>
-      </c>
-      <c r="D11" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="D11" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>0.3805</v>
-      </c>
-      <c r="D12" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D12" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="D13" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
         <v>0.19639999999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>0.29239999999999999</v>
-      </c>
-      <c r="D14" s="2">
+        <v>0.379</v>
+      </c>
+      <c r="D14" s="1">
         <v>0.19639999999999999</v>
       </c>
     </row>
@@ -7686,206 +11257,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA174E-1D73-43E4-BF72-24FDBDF63650}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.19639999999999999</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.69320000000000004</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.19639999999999999</v>
+        <v>0.74</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.40960000000000002</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.64019999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>0.84740000000000004</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.73280000000000001</v>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.87429999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.44269999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.67659999999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>0.9022</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.75800000000000001</v>
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.83940000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.39729999999999999</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.40620000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>0.81320000000000003</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.73350000000000004</v>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.72860000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.3075</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.42109999999999997</v>
       </c>
       <c r="C6" s="2">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.59379999999999999</v>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.75319999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.44290000000000002</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.30399999999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.76019999999999999</v>
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.43490000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.41360000000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>0.86170000000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.75170000000000003</v>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.72740000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.46310000000000001</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.43409999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.82689999999999997</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.78110000000000002</v>
+        <v>0.78</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.77139999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.57940000000000003</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.43490000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>0.91449999999999998</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.85089999999999999</v>
+        <v>0.87</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.75229999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.40279999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.27889999999999998</v>
       </c>
       <c r="C11" s="2">
-        <v>0.86380000000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.72070000000000001</v>
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.57010000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.31330000000000002</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.59599999999999997</v>
       </c>
       <c r="C12" s="2">
-        <v>0.77210000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.60319999999999996</v>
+        <v>0.877</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.84730000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.35370000000000001</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.28160000000000002</v>
       </c>
       <c r="C13" s="2">
-        <v>0.81120000000000003</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.66239999999999999</v>
+        <v>0.84</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.52</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.3448</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.4284</v>
       </c>
       <c r="C14" s="2">
-        <v>0.70989999999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.64270000000000005</v>
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.75380000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7895,290 +11466,695 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0E6F-1056-46B3-8A45-AC10040EAAE9}">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.502</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.40100000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.50880000000000003</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.46500000000000002</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.80359999999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.875</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.51559999999999995</v>
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.87429999999999997</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.92869999999999997</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.1429</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.90620000000000001</v>
+        <v>33</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.83940000000000003</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.94530000000000003</v>
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.312</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.2475</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.40529999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.72860000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.1613</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.75319999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.8054</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.57299999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.72740000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.76800000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.77139999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.88180000000000003</v>
+      <c r="C35" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D35" s="2">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.75229999999999997</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.89939999999999998</v>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.89600000000000002</v>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.247</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.57010000000000005</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0.93159999999999998</v>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0.91849999999999998</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.877</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.84730000000000005</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0.92720000000000002</v>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.79900000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0.88429999999999997</v>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.87790000000000001</v>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.752</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.90969999999999995</v>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.379</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.4284</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.75380000000000003</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0.88670000000000004</v>
-      </c>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.90620000000000001</v>
-      </c>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0.94040000000000001</v>
-      </c>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0.92679999999999996</v>
-      </c>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="2">
-        <v>0.90920000000000001</v>
-      </c>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="2">
-        <v>0.90429999999999999</v>
-      </c>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="2">
-        <v>0.92430000000000001</v>
-      </c>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.90039999999999998</v>
-      </c>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Acuracia Resultados.xlsx
+++ b/Acuracia Resultados.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AEC28EEC-1A7D-482F-A3AD-217DD44D63B2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="857" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9390" yWindow="1305" windowWidth="19410" windowHeight="8670" tabRatio="857" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TesteRede2_Binaria_Base2" sheetId="5" r:id="rId1"/>
@@ -6650,7 +6650,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$9</c15:sqref>
@@ -6676,7 +6676,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -6699,7 +6699,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$9:$D$9</c15:sqref>
@@ -6712,7 +6712,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -6725,7 +6725,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$13</c15:sqref>
@@ -6751,7 +6751,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -6774,7 +6774,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$13:$D$13</c15:sqref>
@@ -6787,7 +6787,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -6800,7 +6800,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$17</c15:sqref>
@@ -6827,7 +6827,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -6850,7 +6850,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$17:$D$17</c15:sqref>
@@ -6863,7 +6863,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -6876,7 +6876,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$21</c15:sqref>
@@ -6902,7 +6902,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -6925,7 +6925,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$21:$D$21</c15:sqref>
@@ -6938,7 +6938,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -6951,7 +6951,7 @@
                 <c:order val="23"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$25</c15:sqref>
@@ -6977,7 +6977,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7000,7 +7000,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$25:$D$25</c15:sqref>
@@ -7013,7 +7013,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -7026,7 +7026,7 @@
                 <c:order val="27"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$29</c15:sqref>
@@ -7053,7 +7053,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7076,7 +7076,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$29:$D$29</c15:sqref>
@@ -7089,7 +7089,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001B-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -7102,7 +7102,7 @@
                 <c:order val="31"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$33</c15:sqref>
@@ -7128,7 +7128,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7151,7 +7151,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$33:$D$33</c15:sqref>
@@ -7164,7 +7164,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001F-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -7177,7 +7177,7 @@
                 <c:order val="35"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$37</c15:sqref>
@@ -7203,7 +7203,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7226,7 +7226,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$37:$D$37</c15:sqref>
@@ -7239,7 +7239,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000023-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -7252,7 +7252,7 @@
                 <c:order val="39"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$41</c15:sqref>
@@ -7279,7 +7279,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7302,7 +7302,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$41:$D$41</c15:sqref>
@@ -7315,7 +7315,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000027-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -7328,7 +7328,7 @@
                 <c:order val="43"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$45</c15:sqref>
@@ -7354,7 +7354,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7377,7 +7377,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$45:$D$45</c15:sqref>
@@ -7390,7 +7390,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002B-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -7403,7 +7403,7 @@
                 <c:order val="47"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$A$49</c15:sqref>
@@ -7429,7 +7429,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
@@ -7452,7 +7452,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Todos!$B$49:$D$49</c15:sqref>
@@ -7465,7 +7465,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002F-34B0-4AD8-BDEA-40D076F1D215}"/>
                   </c:ext>
@@ -11046,7 +11046,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11249,7 +11249,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11257,7 +11258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA174E-1D73-43E4-BF72-24FDBDF63650}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
@@ -11468,8 +11469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0E6F-1056-46B3-8A45-AC10040EAAE9}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Acuracia Resultados.xlsx
+++ b/Acuracia Resultados.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="417" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AEC28EEC-1A7D-482F-A3AD-217DD44D63B2}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{6DEE54BE-0BF6-4428-B6D2-0F659F733EDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7EE4EB1B-9933-4E1B-B102-B86AD3F71F06}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="1305" windowWidth="19410" windowHeight="8670" tabRatio="857" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="857" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TesteRede2_Binaria_Base2" sheetId="5" r:id="rId1"/>
     <sheet name="TesteRede2_Binaria_Base3" sheetId="6" r:id="rId2"/>
-    <sheet name="TesteRede2_Colorida_Base2" sheetId="7" r:id="rId3"/>
-    <sheet name="Todos" sheetId="4" r:id="rId4"/>
+    <sheet name="TesteRede2_Binaria_Base3_DataAu" sheetId="8" r:id="rId3"/>
+    <sheet name="TesteRede2_Colorida_Base2" sheetId="7" r:id="rId4"/>
+    <sheet name="Todos" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t>Modelo</t>
   </si>
@@ -194,6 +195,45 @@
   </si>
   <si>
     <t>M13 - TesteRede2_Colorida_Base2</t>
+  </si>
+  <si>
+    <t>M1 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M2 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M3 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M4 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M5 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M6 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M7 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M13 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M8 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M9 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M10 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M11 - TesteRede2_Binaria_Base3_DataAu</t>
+  </si>
+  <si>
+    <t>M12 - TesteRede2_Binaria_Base3_DataAu</t>
   </si>
 </sst>
 </file>
@@ -3773,11 +3813,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Todos!$A$2</c:f>
+              <c:f>Todos!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M1 - TesteRede2_Binaria_Base2</c:v>
+                  <c:v>Precisão</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3794,42 +3834,336 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:f>Todos!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>Precisão</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUC</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1 - TesteRede2_Colorida_Base2 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M2 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M2 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M2 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M2 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M3 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M3 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M3 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M3 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>M4 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>M4 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>M4 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>M4 -  TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>M5 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>M5 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M5 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>M5 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>M6 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>M6 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>M6 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>M6 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>M7 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>M7 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>M7 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>M7 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M8 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>M8 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>M8 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>M8 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>M9 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>M9 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>M9 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>M9 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>M10 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>M10 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>M10 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>M10 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>M11 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>M11 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>M11 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>M11 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>M12 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>M12 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>M12 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>M12 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>M13 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>M13 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>M13 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>M13 - TesteRede2_Colorida_Base2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Todos!$B$2:$D$2</c:f>
+              <c:f>Todos!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.40100000000000002</c:v>
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.40620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1613</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.42109999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.62290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74339999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2427</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.41360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.43409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.27889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.28160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.4284</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-34B0-4AD8-BDEA-40D076F1D215}"/>
+              <c16:uniqueId val="{00000000-4B98-4880-8785-5A7DBA27B136}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3838,11 +4172,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Todos!$A$3</c:f>
+              <c:f>Todos!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M1 - TesteRede2_Binaria_Base3</c:v>
+                  <c:v>Acuracia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3859,42 +4193,336 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:f>Todos!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>Precisão</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUC</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1 - TesteRede2_Colorida_Base2 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M2 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M2 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M2 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M2 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M3 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M3 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M3 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M3 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>M4 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>M4 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>M4 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>M4 -  TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>M5 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>M5 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M5 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>M5 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>M6 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>M6 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>M6 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>M6 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>M7 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>M7 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>M7 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>M7 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M8 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>M8 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>M8 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>M8 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>M9 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>M9 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>M9 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>M9 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>M10 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>M10 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>M10 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>M10 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>M11 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>M11 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>M11 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>M11 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>M12 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>M12 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>M12 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>M12 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>M13 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>M13 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>M13 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>M13 - TesteRede2_Colorida_Base2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Todos!$B$3:$D$3</c:f>
+              <c:f>Todos!$C$2:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
+                  <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.80359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>0.46500000000000002</c:v>
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>9.6000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.40529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.8054</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.76300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.90439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.79749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.72299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.317</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-34B0-4AD8-BDEA-40D076F1D215}"/>
+              <c16:uniqueId val="{00000001-4B98-4880-8785-5A7DBA27B136}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3903,11 +4531,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Todos!$A$4</c:f>
+              <c:f>Todos!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>M1 - TesteRede2_Colorida_Base2 </c:v>
+                  <c:v>AUC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3924,2636 +4552,336 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
+              <c:f>Todos!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>Precisão</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AUC</c:v>
+                  <c:v>M1 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>M1 - TesteRede2_Colorida_Base2 </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>M2 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>M2 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>M2 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>M2 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>M3 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>M3 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>M3 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>M3 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>M4 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>M4 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>M4 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>M4 -  TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>M5 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>M5 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>M5 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>M5 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>M6 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>M6 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>M6 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>M6 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>M7 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>M7 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>M7 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>M7 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>M8 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>M8 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>M8 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>M8 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>M9 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>M9 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>M9 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>M9 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>M10 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>M10 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>M10 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>M10 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>M11 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>M11 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>M11 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>M11 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>M12 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>M12 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>M12 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>M12 - TesteRede2_Colorida_Base2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>M13 - TesteRede2_Binaria_Base2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>M13 - TesteRede2_Binaria_Base3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>M13 - TesteRede2_Binaria_Base3_DataAu</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>M13 - TesteRede2_Colorida_Base2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Todos!$B$4:$D$4</c:f>
+              <c:f>Todos!$D$2:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0</c:v>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>0.40100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74</c:v>
+                  <c:v>0.46500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00%">
                   <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00%">
+                  <c:v>0.80359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00%">
+                  <c:v>0.87429999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00%">
+                  <c:v>0.83940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00%">
+                  <c:v>0.22070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00%">
+                  <c:v>0.72860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00%">
+                  <c:v>0.75319999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00%">
+                  <c:v>0.81659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00%">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00%">
+                  <c:v>0.38979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00%">
+                  <c:v>0.72740000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="0.00%">
+                  <c:v>0.77139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00%">
+                  <c:v>0.75229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00%">
+                  <c:v>0.57010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00%">
+                  <c:v>0.84730000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00%">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.752</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00%">
+                  <c:v>0.19639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00%">
+                  <c:v>0.75380000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M2 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.69499999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M2 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.60499999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M2 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$8:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.64019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91700000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.87429999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M3 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$10:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.85899999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M3 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$11:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>9.1999999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M3 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$12:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.67659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.88600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.83940000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M4 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$14:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.312</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M4 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$15:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.2475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.40529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.94499999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M4 -  TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$16:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.40620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.72860000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M5 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$18:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.1613</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79720000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.44900000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="17"/>
-          <c:order val="17"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M5 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$19:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M5 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$20:$D$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.42109999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.89400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.75319999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M6 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$22:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.93600000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="21"/>
-          <c:order val="21"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M6 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$23:$D$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.53059999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8054</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.57299999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M6 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$24:$D$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.30399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.57799999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M7 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$26:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.44109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.29199999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000018-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="25"/>
-          <c:order val="25"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M7 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$27:$D$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.74339999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.93400000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000019-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="26"/>
-          <c:order val="26"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M7 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$28:$D$28</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.41360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.90300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.72740000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001A-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="28"/>
-          <c:order val="28"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M8 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$30:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.33329999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79810000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.76800000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="29"/>
-          <c:order val="29"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M8 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$31:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.93</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001D-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="30"/>
-          <c:order val="30"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M8 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$32:$D$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.43409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.77139999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="32"/>
-          <c:order val="32"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M9 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$34:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.32140000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.748</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="33"/>
-          <c:order val="33"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M9 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$35:$D$35</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000021-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="34"/>
-          <c:order val="34"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M9 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$36:$D$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.43490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.75229999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000022-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="36"/>
-          <c:order val="36"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M10 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$38:$D$38</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.66200000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="37"/>
-          <c:order val="37"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M10 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$39:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.247</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="38"/>
-          <c:order val="38"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M10 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$40:$D$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.27889999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.57010000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="40"/>
-          <c:order val="40"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M11 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$42:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6.4000000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.35899999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="41"/>
-          <c:order val="41"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M11 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="70000"/>
-                <a:lumOff val="30000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$43:$D$43</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.28299999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000029-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="42"/>
-          <c:order val="42"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M11 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$44:$D$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.59599999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.877</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.84730000000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002A-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="44"/>
-          <c:order val="44"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M12 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$46:$D$46</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.79900000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002C-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="45"/>
-          <c:order val="45"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M12 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$47:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.53700000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002D-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="46"/>
-          <c:order val="46"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M12 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="70000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$48:$D$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.28160000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000002E-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="48"/>
-          <c:order val="48"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M13 - TesteRede2_Binaria_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$50:$D$50</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.80330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.752</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000030-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="49"/>
-          <c:order val="49"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M13 - TesteRede2_Binaria_Base3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$51:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.379</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000031-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="50"/>
-          <c:order val="50"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$52</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>M13 - TesteRede2_Colorida_Base2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$52:$D$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="0.00%">
-                  <c:v>0.4284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00%">
-                  <c:v>0.75380000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000032-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="51"/>
-          <c:order val="51"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$53:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000033-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="52"/>
-          <c:order val="52"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$54</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$54:$D$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000034-34B0-4AD8-BDEA-40D076F1D215}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="53"/>
-          <c:order val="53"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Todos!$A$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Todos!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Precisão</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Acuracia</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>AUC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Todos!$B$55:$D$55</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000035-34B0-4AD8-BDEA-40D076F1D215}"/>
+              <c16:uniqueId val="{00000002-4B98-4880-8785-5A7DBA27B136}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6567,916 +4895,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="501123760"/>
-        <c:axId val="501125400"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$5:$D$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$9:$D$9</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$13:$D$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000B-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="15"/>
-                <c:order val="15"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="80000"/>
-                      <a:lumOff val="20000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$17:$D$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000F-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="19"/>
-                <c:order val="19"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$21:$D$21</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000013-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="23"/>
-                <c:order val="23"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="80000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$25:$D$25</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000017-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="27"/>
-                <c:order val="27"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$29:$D$29</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000001B-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="31"/>
-                <c:order val="31"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$33</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$33:$D$33</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000001F-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="35"/>
-                <c:order val="35"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$37</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$37:$D$37</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000023-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="39"/>
-                <c:order val="39"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="70000"/>
-                      <a:lumOff val="30000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$41:$D$41</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000027-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="43"/>
-                <c:order val="43"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$45</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="70000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$45:$D$45</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000002B-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="47"/>
-                <c:order val="47"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$A$49</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="70000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$1:$D$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Precisão</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Acuracia</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>AUC</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Todos!$B$49:$D$49</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00%</c:formatCode>
-                      <c:ptCount val="3"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000002F-34B0-4AD8-BDEA-40D076F1D215}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="552190592"/>
+        <c:axId val="552190920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="501123760"/>
+        <c:axId val="552190592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7519,7 +4942,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501125400"/>
+        <c:crossAx val="552190920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7527,7 +4950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="501125400"/>
+        <c:axId val="552190920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7578,7 +5001,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501123760"/>
+        <c:crossAx val="552190592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7623,6 +5046,13 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -10531,23 +7961,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>346981</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>145595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E0809DA-2AAE-4C33-82C6-90B7EDE2E816}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39E4A0DE-EA2C-4F96-BF18-8B7B7DAD53C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11046,7 +8476,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11255,10 +8685,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA174E-1D73-43E4-BF72-24FDBDF63650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903440B6-89FE-48D0-A791-C0DFEF6FC976}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
@@ -11286,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>0.74</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D2" s="1">
         <v>0.80359999999999998</v>
@@ -11297,13 +8727,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>0.64019999999999999</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>0.91700000000000004</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.87429999999999997</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -11311,13 +8741,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.67659999999999998</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>0.88600000000000001</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="D4" s="1">
-        <v>0.83940000000000003</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11325,13 +8755,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.40620000000000001</v>
+        <v>0.20130000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>0.76700000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.72860000000000003</v>
+        <v>0.22070000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11339,13 +8769,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.42109999999999997</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>0.89400000000000002</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11353,13 +8783,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>0.30399999999999999</v>
+        <v>0.62290000000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>0.57799999999999996</v>
+        <v>0.81659999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11367,13 +8797,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>0.41360000000000002</v>
+        <v>0.2427</v>
       </c>
       <c r="C8" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D8" s="1">
-        <v>0.72740000000000005</v>
+        <v>0.38979999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11381,13 +8811,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1">
-        <v>0.43409999999999999</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>0.78</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.77139999999999997</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11395,13 +8825,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="1">
-        <v>0.43490000000000001</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C10" s="2">
-        <v>0.87</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>0.75229999999999997</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11409,13 +8839,13 @@
         <v>13</v>
       </c>
       <c r="B11" s="1">
-        <v>0.27889999999999998</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>0.57010000000000005</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -11423,13 +8853,13 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>0.877</v>
+        <v>0.214</v>
       </c>
       <c r="D12" s="1">
-        <v>0.84730000000000005</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11437,13 +8867,13 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>0.28160000000000002</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.84</v>
+        <v>0.317</v>
       </c>
       <c r="D13" s="1">
-        <v>0.52</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11451,13 +8881,13 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>0.4284</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>0.84299999999999997</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>0.75380000000000003</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11466,16 +8896,227 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0E6F-1056-46B3-8A45-AC10040EAAE9}">
-  <dimension ref="A1:D84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBA174E-1D73-43E4-BF72-24FDBDF63650}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.87429999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.83940000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.72860000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.75319999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.57799999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.72740000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.77139999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.75229999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.57010000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.877</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.84730000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.4284</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.75380000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEEA0E6F-1056-46B3-8A45-AC10040EAAE9}">
+  <dimension ref="A1:D97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D65" sqref="A1:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11523,204 +9164,213 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>0.74</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="D4" s="1">
         <v>0.80359999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.80359999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.69499999999999995</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
-        <v>0.19600000000000001</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0.20069999999999999</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="D7" s="2">
-        <v>0.60499999999999998</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1">
-        <v>0.64019999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.87429999999999997</v>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.20069999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.19639999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1">
-        <v>0.1429</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.80210000000000004</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.85899999999999999</v>
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.87429999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="D11" s="2">
-        <v>9.1999999999999998E-2</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>0.67659999999999998</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.83940000000000003</v>
+        <v>0.1429</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.85899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.1999999999999998E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.80359999999999998</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.312</v>
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1">
-        <v>0.2475</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.40529999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.94499999999999995</v>
+        <v>0.67659999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.83940000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.40620000000000001</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.72860000000000003</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.80359999999999998</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.312</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1">
-        <v>0.1613</v>
+        <v>0.2475</v>
       </c>
       <c r="C18" s="1">
-        <v>0.79720000000000002</v>
+        <v>0.40529999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.1</v>
+        <v>0.20130000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.22070000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1">
-        <v>0.42109999999999997</v>
+        <v>0.40620000000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>0.89400000000000002</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>0.75319999999999998</v>
+        <v>0.72860000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -11730,232 +9380,241 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>0.1613</v>
       </c>
       <c r="C22" s="1">
-        <v>0.80359999999999998</v>
+        <v>0.79720000000000002</v>
       </c>
       <c r="D22" s="2">
-        <v>0.93600000000000005</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1">
-        <v>0.53059999999999996</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>0.8054</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.57299999999999995</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1">
-        <v>0.30399999999999999</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C24" s="2">
-        <v>0.76300000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>0.57799999999999996</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.75319999999999998</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>3.3E-3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.44109999999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.29199999999999998</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>0.74339999999999995</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>0.90439999999999998</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="D27" s="2">
-        <v>0.93400000000000005</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>0.41360000000000002</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.72740000000000005</v>
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.8054</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.81659999999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.79810000000000003</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.93</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.77139999999999997</v>
+        <v>3.3E-3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.74339999999999995</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.93400000000000005</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.79749999999999999</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.748</v>
+        <v>0.2427</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.38979999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="D35" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>50</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.72740000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.43490000000000001</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.75229999999999997</v>
-      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.79810000000000003</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C38" s="1">
-        <v>0.80359999999999998</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="D38" s="2">
-        <v>0.66200000000000003</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1">
         <v>0.19639999999999999</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D39" s="1">
         <v>0.19639999999999999</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.247</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1">
-        <v>0.27889999999999998</v>
+        <v>0.43409999999999999</v>
       </c>
       <c r="C40" s="2">
-        <v>0.72299999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="D40" s="1">
-        <v>0.57010000000000005</v>
+        <v>0.77139999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -11965,21 +9624,21 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="C42" s="1">
-        <v>0.61599999999999999</v>
+        <v>0.79749999999999999</v>
       </c>
       <c r="D42" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" s="1">
         <v>0.19639999999999999</v>
@@ -11988,157 +9647,285 @@
         <v>0.19639999999999999</v>
       </c>
       <c r="D43" s="2">
-        <v>0.28299999999999997</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1">
-        <v>0.59599999999999997</v>
+        <v>0.19639999999999999</v>
       </c>
       <c r="C44" s="2">
-        <v>0.877</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>0.84730000000000005</v>
+        <v>0.19639999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.75229999999999997</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.80330000000000001</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.79900000000000004</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B47" s="1">
-        <v>0.19639999999999999</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>0.19639999999999999</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="D47" s="2">
-        <v>0.53700000000000003</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1">
-        <v>0.28160000000000002</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.52</v>
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.247</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.19639999999999999</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.80330000000000001</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.752</v>
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.57010000000000005</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.19639999999999999</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.379</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.214</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.877</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.84730000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.317</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.19639999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B65" s="1">
         <v>0.4284</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C65" s="2">
         <v>0.84299999999999997</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D65" s="1">
         <v>0.75380000000000003</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
@@ -12152,6 +9939,42 @@
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
